--- a/BD_Excel/carreras.xlsx
+++ b/BD_Excel/carreras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alcid\OneDrive\Documents\2023-2\MTIngSW\Datos_Eval3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlg\Documents\GitHub\TingesoPep3\BD_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC1CA6E-95AA-405E-814E-CB1B5C87CA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4353BEDA-8A31-40D0-9A0A-7AA1B87C412F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{4C6CA766-2A42-42C4-80A1-CBA0C753D42A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{4C6CA766-2A42-42C4-80A1-CBA0C753D42A}"/>
   </bookViews>
   <sheets>
     <sheet name="Carreras" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Codigo</t>
-  </si>
-  <si>
-    <t>Nombre carrera</t>
-  </si>
-  <si>
     <t>INGENIERÍA QUÍMICA</t>
   </si>
   <si>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>INGENIERÍA OBRAS CIVILES</t>
+  </si>
+  <si>
+    <t>nombre_carrera</t>
+  </si>
+  <si>
+    <t>cod_carr</t>
   </si>
 </sst>
 </file>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -429,108 +429,110 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5234375" customWidth="1"/>
-    <col min="2" max="2" width="51.05078125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
